--- a/PoormansLowPassFilter.xlsx
+++ b/PoormansLowPassFilter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uutzi\Documents\GitHub\ESP Playground\AirQuality\software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uutzi\Documents\GitHub\ESP Playground\AirQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9484ABF7-A135-4EFC-8631-7DFFFE3B8982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032F18C6-623A-4ADC-8AE5-9BE41AFDFB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="10060" xr2:uid="{E269EE8E-CEA4-4AC5-91D4-C8ED5AD5D236}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9970" xr2:uid="{E269EE8E-CEA4-4AC5-91D4-C8ED5AD5D236}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>wc</t>
   </si>
@@ -48,12 +48,6 @@
     <t>wcn</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
     <t>alpha_approx</t>
   </si>
   <si>
@@ -69,12 +63,6 @@
     <t>Cut off frequency</t>
   </si>
   <si>
-    <t>Averaging Time</t>
-  </si>
-  <si>
-    <t>Sampling</t>
-  </si>
-  <si>
     <t>Sampling Frequency</t>
   </si>
   <si>
@@ -91,14 +79,50 @@
   </si>
   <si>
     <t>rad</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>y = 1-cos(wcn)</t>
+  </si>
+  <si>
+    <t>alpha = =-y+SQRT(y*y+2*y)</t>
+  </si>
+  <si>
+    <t>y = wcn*wcn)/2 (small angle approx)</t>
+  </si>
+  <si>
+    <t>Poorman's Low Pass Filter:</t>
+  </si>
+  <si>
+    <t>Computation to determine alpha:</t>
+  </si>
+  <si>
+    <t>Averaging Time: Input</t>
+  </si>
+  <si>
+    <t>Sampling: Input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,10 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,135 +481,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782A8AFD-410E-4CF1-B94B-837C39CC7527}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
         <f>24*3600</f>
         <v>86400</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <f>C4/60/60</f>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>2 * 3.141 / C4</f>
+        <v>7.270833333333333E-5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f>C6/1000</f>
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>1/(C6/1000)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f>C5/C7</f>
+        <v>4.3625000000000001E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>2 * 3.141 / C1</f>
-        <v>7.270833333333333E-5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <f>1/(C3/1000)</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <f>C2/C4</f>
-        <v>4.3625000000000001E-3</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C9">
+        <f>1-COS(C8)</f>
+        <v>9.5156880335345306E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <f>C8*C8/2</f>
+        <v>9.5157031250000004E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" s="2">
+        <f>-C9+SQRT(C9*C9+2*C9)</f>
+        <v>4.3529912306300694E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
-        <f>1-COS(C5)</f>
-        <v>9.5156880335345306E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <f>-C6+SQRT(C6*C6+2*C6)</f>
-        <v>4.3529912306300694E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <f>C5/(1+C5)</f>
+      <c r="C12">
+        <f>C8/(1+C8)</f>
         <v>4.3435512576385513E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <f>1-(EXP(-C5))</f>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f>1-(EXP(-C8))</f>
         <v>4.352998119214968E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PoormansLowPassFilter.xlsx
+++ b/PoormansLowPassFilter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uutzi\Documents\GitHub\ESP Playground\AirQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032F18C6-623A-4ADC-8AE5-9BE41AFDFB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E102DDC6-714C-4097-9753-F3296597716B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9970" xr2:uid="{E269EE8E-CEA4-4AC5-91D4-C8ED5AD5D236}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E269EE8E-CEA4-4AC5-91D4-C8ED5AD5D236}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>wc</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Temp</t>
   </si>
   <si>
-    <t>y_new = (1-alpha) * y_old + alpha * x_measured</t>
-  </si>
-  <si>
     <t>sec</t>
   </si>
   <si>
@@ -102,10 +99,16 @@
     <t>Computation to determine alpha:</t>
   </si>
   <si>
-    <t>Averaging Time: Input</t>
-  </si>
-  <si>
-    <t>Sampling: Input</t>
+    <t>Averaging Time: Enter seconds into green field</t>
+  </si>
+  <si>
+    <t>Sampling: Enter interval between samples in ms</t>
+  </si>
+  <si>
+    <t>Alpha with small angle approx (no cosine)</t>
+  </si>
+  <si>
+    <t>x_new = (1-alpha) * x_old + alpha * x_measured</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,36 +502,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <f>24*3600</f>
         <v>86400</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <f>C4/60/60</f>
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -548,7 +551,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -564,7 +567,7 @@
         <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -594,7 +597,7 @@
         <v>4.3625000000000001E-3</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -602,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <f>1-COS(C8)</f>
@@ -611,7 +614,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <f>C8*C8/2</f>
@@ -620,7 +623,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <f>-C9+SQRT(C9*C9+2*C9)</f>
@@ -628,6 +631,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
